--- a/BvIDexportL2.2.xlsx
+++ b/BvIDexportL2.2.xlsx
@@ -17,6 +17,12 @@
     <t xml:space="preserve">NewBvDIDs</t>
   </si>
   <si>
+    <t xml:space="preserve">GB03564138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">DE*850267597</t>
   </si>
   <si>
@@ -35,25 +41,19 @@
     <t xml:space="preserve">FI01126502</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03564138</t>
-  </si>
-  <si>
     <t xml:space="preserve">LULB188712</t>
   </si>
   <si>
     <t xml:space="preserve">LULB185422</t>
   </si>
   <si>
+    <t xml:space="preserve">HK0000244354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US149146115L</t>
+  </si>
+  <si>
     <t xml:space="preserve">NL34140812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK0000244354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149146115L</t>
   </si>
 </sst>
 </file>

--- a/BvIDexportL2.2.xlsx
+++ b/BvIDexportL2.2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">NewBvDIDs</t>
   </si>
@@ -32,13 +32,34 @@
     <t xml:space="preserve">DE2070000543</t>
   </si>
   <si>
+    <t xml:space="preserve">LULB166745</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE2070071908</t>
   </si>
   <si>
     <t xml:space="preserve">DE8170085484</t>
   </si>
   <si>
+    <t xml:space="preserve">US133277535L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT00079760328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL34275688</t>
+  </si>
+  <si>
     <t xml:space="preserve">FI01126502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB176010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB181081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB185521</t>
   </si>
   <si>
     <t xml:space="preserve">LULB188712</t>
@@ -455,6 +476,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
